--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED221_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED221_주단위상세일정.xlsx
@@ -119,20 +119,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>HTML5 + CSS3 기본 및 응용연습
-CGV PJ + 미디어쿼리 + 애니메이션</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>포트폴리오 발표 및 검수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기본 / CSS 애니메이션, 
-VOGUE PJ / XD 프로토타이핑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Javascript 기본,응용 / CSS 애니메이션, 
 VOGUE PJ / 미디어쿼리</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -228,11 +214,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Javascript 기본,응용
-VOGUE PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 기초탄탄, 4차산업 Front-end(프론트엔드) IT 소프트웨어 웹 개발 1회차 주별 상세일정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -246,12 +227,6 @@
     <t>발표</t>
   </si>
   <si>
-    <t>Javascript 기본,응용 / jQuery 기본, 
-VOGUE PJ / SVG 애니메이션
- Vue.js 적용, 파일럿 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>작품발표회
 4/20(수)
 7,8교시</t>
@@ -272,13 +247,39 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>개발환경셋팅: VS Code + Server + GitHub
+HTML 기초 + CSS 기초</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기본 / CSS 애니메이션, 
+CGV PJ / VOGUE PJ / XD 프로토타이핑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>HTML5 + CSS3 기본 및 응용연습
 도깨비 PJ + 미디어쿼리 + 와이어프레이밍</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>개발환경셋팅: VS Code + Server + GitHub
-HTML 기초 + CSS 기초</t>
+    <t>HTML5 + CSS3 기본 및 응용연습
+도깨비 PJ + 미디어쿼리 + 애니메이션</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기본,응용 / jQuery 기본, 
+VOGUE PJ / SVG 애니메이션</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> jQuery 응용,  Vue.js 적용
+파일럿 PJ, 포트폴리오 발표 및 검수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> jQuery 응용, 
+VOGUE PJ / SVG 애니메이션
+ Vue.js 기본, 파일럿 PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +575,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -620,9 +621,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -634,9 +632,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -644,15 +639,51 @@
     <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,34 +705,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1016,8 +1023,8 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1037,39 +1044,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="B2" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1090,248 +1097,248 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="25">
         <v>44614</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="25">
         <v>44617</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="27">
         <f t="shared" ref="F5:F8" si="0">DAYS360(C5,E5)+1</f>
         <v>4</v>
       </c>
-      <c r="G5" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="42"/>
+      <c r="G5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="25">
         <v>44620</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="25">
         <v>44624</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="27">
         <f>DAYS360(C6,E6)</f>
         <v>4</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="33">
+      <c r="G6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="32">
         <v>44623</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="34"/>
+      <c r="J6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="33"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="25">
         <v>44627</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="25">
         <v>44631</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="27">
         <f>DAYS360(C7,E7)</f>
         <v>4</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="23"/>
+      <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="25">
         <v>44641</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="25">
         <v>44645</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="22">
+      <c r="G8" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="32">
         <v>44642</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="23"/>
+      <c r="I8" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="25">
         <v>44648</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="25">
         <v>44652</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="27">
         <f>DAYS360(C9,E9)+2</f>
         <v>5</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="32">
         <v>44649</v>
       </c>
-      <c r="I9" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>42</v>
+      <c r="I9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="25">
         <v>44655</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="25">
         <v>44659</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="27">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="25"/>
+      <c r="G10" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="35"/>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="11">
         <v>44662</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="11">
         <v>44666</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="13">
         <f>DAYS360(C11,E11)+1</f>
         <v>5</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="G11" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="23">
         <v>44663</v>
       </c>
-      <c r="I11" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="23"/>
+      <c r="I11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="44"/>
     </row>
     <row r="12" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>44669</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>44671</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <f>DAYS360(C12,E12)+1</f>
         <v>3</v>
       </c>
-      <c r="G12" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="22">
+      <c r="G12" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="20">
         <v>44671</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>39</v>
+      <c r="I12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1343,30 +1350,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="B15" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1378,7 +1385,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
